--- a/doc/ue_obj.xlsx
+++ b/doc/ue_obj.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D836344-31AE-46FE-88C3-23ED810533B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="类" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="222">
   <si>
     <t>UObjectBase</t>
   </si>
@@ -746,13 +747,32 @@
   </si>
   <si>
     <t>一般都需要传入自己的Class,否则无法映射到蓝图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UObjectBase::EmitBaseReferences(UClass *RootClass)</t>
+  </si>
+  <si>
+    <t>ClassPrivate和OuterPrivate会在上面的函数里面和放入Obj的Reference里，这样子就受GC影响了，不会被释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在void ProcessObjectArray(FGCArrayStruct&amp; InObjectsToSerializeStruct, const FGraphEventRef&amp; MyCompletionGraphEvent)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面函数会计算Obj的Reference，使其受GC影响，不会被释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -813,7 +833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -827,6 +847,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,11 +1130,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:E164"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1122,7 +1145,7 @@
     <col min="4" max="4" width="53.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1130,35 +1153,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1166,7 +1206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -1881,7 +1921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:D34"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -2055,11 +2095,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2160,7 +2200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:F17"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">

--- a/doc/ue_obj.xlsx
+++ b/doc/ue_obj.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D836344-31AE-46FE-88C3-23ED810533B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="类" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="223">
   <si>
     <t>UObjectBase</t>
   </si>
@@ -766,13 +765,17 @@
   </si>
   <si>
     <t>！！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速查找 StaticFindObjectFast</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1130,10 +1133,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1921,7 +1924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D34"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -2095,11 +2098,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A4:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2109,6 +2112,11 @@
     <col min="3" max="3" width="51.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>107</v>
@@ -2200,7 +2208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F17"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
